--- a/Model/data.xlsx
+++ b/Model/data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\a.nezhadshamsi\Desktop\# Thesis\portfolio-selection-using-ml\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1C8B8D-2EB2-49AC-87A1-BA7739063A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A92201-F558-4E32-AAFF-05DA22B5F6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="bitcoin" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>NASDAQ</t>
   </si>
@@ -105,17 +105,35 @@
     <t>Nikkei225</t>
   </si>
   <si>
-    <t>Next 30d Return</t>
-  </si>
-  <si>
-    <t>Next 30d Risk</t>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>BTC</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>Markowitz</t>
+  </si>
+  <si>
+    <t>Next n-days Return</t>
+  </si>
+  <si>
+    <t>Next n-Days Risk</t>
+  </si>
+  <si>
+    <t>Optimal Portfolio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,8 +156,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,12 +206,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -201,34 +271,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -246,6 +376,141 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>110783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>77447</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Right Brace 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECFA9D0D-78BE-46F8-B83A-5BC060FFE81A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="13424245" y="1530837"/>
+          <a:ext cx="157164" cy="1557751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>124240</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>126728</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Arrow: Down 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7737655-50ED-4AE7-AD4F-A51209BF7956}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13385938" y="2816086"/>
+          <a:ext cx="238954" cy="226120"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -511,131 +776,425 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="5.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="3.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" style="6" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="3"/>
+    <col min="30" max="30" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:28" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="9"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="9"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="9"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="11"/>
+    </row>
+    <row r="6" spans="1:28" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB7" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="B8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AA12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB12" s="13"/>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AA13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB13" s="14"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB16" s="18"/>
+    </row>
+    <row r="17" spans="27:28" x14ac:dyDescent="0.25">
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA16:AB17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>